--- a/truth-in-fantasy/checklist.xlsx
+++ b/truth-in-fantasy/checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/truth-in-fantasy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{956DF804-880C-B94C-8984-C93FB82E3929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EF6D8C-AC3C-864F-8C52-63EA7AD4CBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="600" windowWidth="25080" windowHeight="15800" xr2:uid="{5EE90298-57CF-DD41-A488-11B551FFB62C}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="16360" xr2:uid="{5EE90298-57CF-DD41-A488-11B551FFB62C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>year</t>
   </si>
@@ -148,6 +148,96 @@
   </si>
   <si>
     <t>Tao Gods</t>
+  </si>
+  <si>
+    <t>インド曼陀羅大陸―神々・魔族・半身・精霊</t>
+  </si>
+  <si>
+    <t>Indian Mandala Continent: Gods, Asmodians, Half Body, Spirits</t>
+  </si>
+  <si>
+    <t>vol11.jpg</t>
+  </si>
+  <si>
+    <t>vol12.jpg</t>
+  </si>
+  <si>
+    <t>英雄列伝</t>
+  </si>
+  <si>
+    <t>History of Heroes</t>
+  </si>
+  <si>
+    <t>武器と防具〈中国編〉</t>
+  </si>
+  <si>
+    <t>Weapons and Armor (China)</t>
+  </si>
+  <si>
+    <t>vol13.jpg</t>
+  </si>
+  <si>
+    <t>魔術への旅</t>
+  </si>
+  <si>
+    <t>Journey to Magic</t>
+  </si>
+  <si>
+    <t>vol14.jpg</t>
+  </si>
+  <si>
+    <t>vol15.jpg</t>
+  </si>
+  <si>
+    <t>武器と防具〈日本編〉</t>
+  </si>
+  <si>
+    <t>Weapons and Armor (Japan)</t>
+  </si>
+  <si>
+    <t>ギリシア神話 神・英雄録</t>
+  </si>
+  <si>
+    <t>Greek Mythology: Gods and Heroes</t>
+  </si>
+  <si>
+    <t>vol16.jpg</t>
+  </si>
+  <si>
+    <t>天使</t>
+  </si>
+  <si>
+    <t>Angels</t>
+  </si>
+  <si>
+    <t>vol17.jpg</t>
+  </si>
+  <si>
+    <t>堕天使―悪魔たちのプロフィール</t>
+  </si>
+  <si>
+    <t>Fallen Angels: Profile of the Devil</t>
+  </si>
+  <si>
+    <t>vol18.jpg</t>
+  </si>
+  <si>
+    <t>占術―命・卜・相</t>
+  </si>
+  <si>
+    <t>vol19.jpg</t>
+  </si>
+  <si>
+    <t>Sculpture: Life, Divination, and Appearance</t>
+  </si>
+  <si>
+    <t>vol20.jpg</t>
+  </si>
+  <si>
+    <t>武器と防具 (西洋編)</t>
+  </si>
+  <si>
+    <t>Weapons and Armor (Western Edition)</t>
   </si>
 </sst>
 </file>
@@ -499,15 +589,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFA4C85-FD1E-F14B-AFE0-F7302D2D2E78}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="49.83203125" customWidth="1"/>
     <col min="3" max="3" width="64.1640625" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
@@ -732,6 +822,206 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1991</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1992</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1992</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1993</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1994</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1995</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1995</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1995</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1995</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1995</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
